--- a/ocms/src/test/resources/DownloadedFiles/Agent Broadcast Message.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Agent Broadcast Message.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Enabled</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Team</t>
+    <t xml:space="preserve">IT Department</t>
   </si>
   <si>
     <t xml:space="preserve">Tetherfi Technology</t>
